--- a/Bellevue University/Courses/DSC530/DSC530_Grades.xlsx
+++ b/Bellevue University/Courses/DSC530/DSC530_Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safar\Documents\GitHub\Safarie1103\Bellevue University\Courses\DSC530\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC85554-431A-4F65-A5B7-41CFC0BDED18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60934C89-D02D-40FC-820B-6E185E51FCEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24075" yWindow="1440" windowWidth="28800" windowHeight="13860" xr2:uid="{8DBFA4B6-8248-4EC2-B5A9-B40D38B2DDF7}"/>
+    <workbookView xWindow="4605" yWindow="2415" windowWidth="23040" windowHeight="8955" xr2:uid="{8DBFA4B6-8248-4EC2-B5A9-B40D38B2DDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EA7519-6E55-4231-B686-D956A27083C1}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,31 +605,21 @@
       <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="C22">
-        <f>(SUM(B2:B22)/SUM(A2:A22))*100</f>
-        <v>98.039215686274503</v>
-      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>80</v>
       </c>
       <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:C33" si="0">(SUM(B3:B23)/SUM(A3:A23))*100</f>
-        <v>90.196078431372555</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>40</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>86.538461538461547</v>
+      <c r="B24" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,89 +629,81 @@
       <c r="B25" s="2">
         <v>20</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>86.274509803921575</v>
-      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>80</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>78.431372549019613</v>
+      <c r="B26" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>40</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>75</v>
+      <c r="B27" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>20</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>72.448979591836732</v>
+      <c r="B28" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>80</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>65.686274509803923</v>
+      <c r="B29" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>40</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>62.5</v>
+      <c r="B30" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>20</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2">
+        <v>20</v>
+      </c>
       <c r="C31">
-        <f t="shared" si="0"/>
-        <v>58.163265306122447</v>
+        <f>(SUM(B2:B31)/SUM(A2:A31))*100</f>
+        <v>98.611111111111114</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2">
+        <v>30</v>
+      </c>
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>54.639175257731956</v>
+        <f>(SUM(B2:B32)/SUM(A2:A32))*100</f>
+        <v>98.639455782312922</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>360</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2">
+        <v>200</v>
+      </c>
       <c r="C33">
-        <f t="shared" si="0"/>
-        <v>38.931297709923662</v>
+        <f>(SUM(B2:B33)/SUM(A2:A33))*100</f>
+        <v>90.163934426229503</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,20 +713,20 @@
       </c>
       <c r="B34" s="2">
         <f>SUM(B2:B33)</f>
-        <v>1020</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>(SUM(B2:B33)/SUM(A2:A33))*100</f>
-        <v>55.737704918032783</v>
+        <v>90.163934426229503</v>
       </c>
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>(B34/A2)*100</f>
-        <v>1275</v>
+        <v>2062.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bellevue University/Courses/DSC530/DSC530_Grades.xlsx
+++ b/Bellevue University/Courses/DSC530/DSC530_Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safar\Documents\GitHub\Safarie1103\Bellevue University\Courses\DSC530\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60934C89-D02D-40FC-820B-6E185E51FCEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1685A66-5A7B-4F6F-8F0E-1AC6FE6BDC5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="2415" windowWidth="23040" windowHeight="8955" xr2:uid="{8DBFA4B6-8248-4EC2-B5A9-B40D38B2DDF7}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11775" xr2:uid="{8DBFA4B6-8248-4EC2-B5A9-B40D38B2DDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -699,11 +699,11 @@
         <v>360</v>
       </c>
       <c r="B33" s="2">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <f>(SUM(B2:B33)/SUM(A2:A33))*100</f>
-        <v>90.163934426229503</v>
+        <v>79.508196721311478</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,20 +713,20 @@
       </c>
       <c r="B34" s="2">
         <f>SUM(B2:B33)</f>
-        <v>1650</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>(SUM(B2:B33)/SUM(A2:A33))*100</f>
-        <v>90.163934426229503</v>
+        <v>79.508196721311478</v>
       </c>
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>(B34/A2)*100</f>
-        <v>2062.5</v>
+        <v>1818.75</v>
       </c>
     </row>
   </sheetData>
